--- a/AAII_Financials/Quarterly/MBLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>MBLY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>450000</v>
+      </c>
+      <c r="E8" s="3">
         <v>460000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>394000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>356000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>326000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>327000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>377000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>334000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E9" s="3">
         <v>231000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>218000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>202000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>173000</v>
       </c>
       <c r="H9" s="3">
         <v>173000</v>
       </c>
       <c r="I9" s="3">
+        <v>173000</v>
+      </c>
+      <c r="J9" s="3">
         <v>183000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>176000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E10" s="3">
         <v>229000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>176000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>154000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>153000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>154000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>194000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>158000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +824,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E12" s="3">
         <v>179000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>180000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>154000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>132000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>128000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>130000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>128000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E17" s="3">
         <v>450000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>440000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>346000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>342000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>355000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>345000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>308000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E18" s="3">
         <v>10000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-44000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-77000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,124 +1041,137 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
+      <c r="D21" s="3">
+        <v>119000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
         <v>480000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
         <v>237000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>11000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-46000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,28 +1179,31 @@
         <v>15000</v>
       </c>
       <c r="E24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>6000</v>
       </c>
       <c r="H24" s="3">
         <v>6000</v>
       </c>
       <c r="I24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-60000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-53000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-60000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-53000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-60000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-53000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-60000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-53000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,17 +1618,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>871000</v>
+      </c>
+      <c r="E41" s="3">
         <v>774000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1562,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1680,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1115000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1620,17 +1712,20 @@
       <c r="K43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E44" s="3">
         <v>98000</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1649,17 +1744,20 @@
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E45" s="3">
         <v>56000</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1678,17 +1776,20 @@
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2162000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2043000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1707,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,17 +1840,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E48" s="3">
         <v>338000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1765,17 +1872,20 @@
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13553000</v>
+      </c>
+      <c r="E49" s="3">
         <v>13684000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
@@ -1794,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,17 +1968,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E52" s="3">
         <v>97000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>16</v>
       </c>
@@ -1881,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +2032,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16164000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16162000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>16</v>
       </c>
@@ -1939,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2094,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E57" s="3">
         <v>138000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
@@ -1994,8 +2124,11 @@
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,17 +2156,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4620000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4592000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2052,17 +2188,20 @@
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4780000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4730000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2081,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,17 +2252,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E62" s="3">
         <v>233000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,17 +2380,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5004000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4963000</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2255,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,17 +2554,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11178000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11223000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2413,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,17 +2682,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11160000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11199000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2529,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-60000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-53000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,23 +2831,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>16</v>
+      <c r="D83" s="3">
+        <v>138000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3">
         <v>526000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
       </c>
@@ -2663,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,23 +3021,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>16</v>
+      <c r="D89" s="3">
+        <v>162000</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3">
         <v>599000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
       </c>
@@ -2837,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,23 +3069,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
+      <c r="D91" s="3">
+        <v>-26000</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3">
         <v>-143000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
       </c>
@@ -2879,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,23 +3163,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>16</v>
+      <c r="D94" s="3">
+        <v>-25000</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3">
         <v>-157000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
       </c>
@@ -2966,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,23 +3337,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3">
+        <v>-36000</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3">
         <v>91000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3124,23 +3369,26 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>16</v>
+      <c r="D101" s="3">
+        <v>-3000</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
       </c>
@@ -3153,23 +3401,26 @@
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>98000</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3">
         <v>532000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3180,6 +3431,9 @@
         <v>16</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>MBLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,180 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>458000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>565000</v>
+      </c>
+      <c r="F8" s="3">
         <v>450000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>460000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>394000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>356000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>326000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>327000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>377000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>334000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>265000</v>
+      </c>
+      <c r="F9" s="3">
         <v>233000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>231000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>218000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>202000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>173000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>173000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>183000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>176000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F10" s="3">
         <v>217000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>229000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>176000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>154000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>153000</v>
       </c>
       <c r="I10" s="3">
         <v>154000</v>
       </c>
       <c r="J10" s="3">
+        <v>153000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>154000</v>
+      </c>
+      <c r="L10" s="3">
         <v>194000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>158000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F12" s="3">
         <v>206000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>179000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>180000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>154000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>132000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>128000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>130000</v>
       </c>
       <c r="K12" s="3">
         <v>128000</v>
       </c>
       <c r="L12" s="3">
+        <v>130000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>128000</v>
+      </c>
+      <c r="N12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -921,31 +961,37 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>16000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -953,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>541000</v>
+      </c>
+      <c r="F17" s="3">
         <v>475000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>450000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>440000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>346000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>342000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>355000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>345000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>308000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-46000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-44000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-20000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-15000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>22000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-77000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1042,84 +1108,98 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F20" s="3">
         <v>6000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2000</v>
       </c>
       <c r="G20" s="3">
         <v>-2000</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>175000</v>
+      </c>
+      <c r="F21" s="3">
         <v>119000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
         <v>480000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>237000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F22" s="3">
         <v>11000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1132,78 +1212,96 @@
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-30000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-44000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-46000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-20000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-16000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="3">
         <v>15000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>15000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-45000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-60000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-53000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-26000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>25000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-45000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-60000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-53000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-26000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>25000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2000</v>
       </c>
       <c r="G32" s="3">
         <v>2000</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-45000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-60000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-53000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-26000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>25000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-45000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-60000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-53000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-26000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>25000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,23 +1791,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1024000</v>
+      </c>
+      <c r="F41" s="3">
         <v>871000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>774000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1651,8 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,23 +1863,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>269000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1123000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1115000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1715,23 +1901,29 @@
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>113000</v>
+      </c>
+      <c r="F44" s="3">
         <v>105000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>98000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1747,23 +1939,29 @@
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F45" s="3">
         <v>63000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>56000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1779,23 +1977,29 @@
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1655000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1516000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2162000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2043000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
       </c>
@@ -1811,8 +2015,14 @@
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,23 +2053,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>384000</v>
+      </c>
+      <c r="F48" s="3">
         <v>354000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>338000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>16</v>
       </c>
@@ -1875,23 +2091,29 @@
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13289000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>13422000</v>
+      </c>
+      <c r="F49" s="3">
         <v>13553000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>13684000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>16</v>
       </c>
@@ -1907,8 +2129,14 @@
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,23 +2205,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>119000</v>
+      </c>
+      <c r="F52" s="3">
         <v>95000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>97000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2003,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,23 +2281,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15462000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>15441000</v>
+      </c>
+      <c r="F54" s="3">
         <v>16164000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16162000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2067,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,23 +2355,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>189000</v>
+      </c>
+      <c r="F57" s="3">
         <v>160000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>138000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2127,8 +2389,14 @@
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,23 +2427,29 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>195000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4620000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4592000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2191,23 +2465,29 @@
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>384000</v>
+      </c>
+      <c r="F60" s="3">
         <v>4780000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4730000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2223,8 +2503,14 @@
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,23 +2541,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>263000</v>
+      </c>
+      <c r="F62" s="3">
         <v>224000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>233000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2287,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,23 +2693,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>675000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>647000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5004000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4963000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2415,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,23 +2899,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F72" s="3">
         <v>11178000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>11223000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2589,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,23 +3051,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14787000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14794000</v>
+      </c>
+      <c r="F76" s="3">
         <v>11160000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11199000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>16</v>
       </c>
@@ -2717,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-45000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-60000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-53000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-26000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>25000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,29 +3228,31 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F83" s="3">
         <v>138000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3">
         <v>526000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
@@ -2864,8 +3262,14 @@
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,29 +3452,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>151000</v>
+      </c>
+      <c r="F89" s="3">
         <v>162000</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3">
         <v>599000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3056,8 +3490,14 @@
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,31 +3510,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>-26000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
+      <c r="E91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-26000</v>
       </c>
       <c r="G91" s="3">
-        <v>-143000</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+        <v>-53000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -3102,8 +3544,14 @@
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,29 +3620,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>868000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3">
         <v>-157000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3198,8 +3658,14 @@
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,29 +3826,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-866000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-36000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3">
         <v>91000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3372,29 +3864,35 @@
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
@@ -3404,29 +3902,35 @@
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>153000</v>
+      </c>
+      <c r="F102" s="3">
         <v>98000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3">
         <v>532000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3434,6 +3938,12 @@
         <v>16</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,192 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E8" s="3">
         <v>458000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>565000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>450000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>460000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>394000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>356000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>326000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>327000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>377000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>334000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E9" s="3">
         <v>251000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>265000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>233000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>231000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>218000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>202000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>173000</v>
       </c>
       <c r="K9" s="3">
         <v>173000</v>
       </c>
       <c r="L9" s="3">
+        <v>173000</v>
+      </c>
+      <c r="M9" s="3">
         <v>183000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>176000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E10" s="3">
         <v>207000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>217000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>229000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>176000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>154000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>153000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>154000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>194000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>158000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E12" s="3">
         <v>235000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>224000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>206000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>179000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>180000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>154000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>132000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>128000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>130000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>128000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,11 +1001,11 @@
         <v>17000</v>
       </c>
       <c r="F15" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G15" s="3">
         <v>16000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
@@ -993,8 +1015,8 @@
       <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1005,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E17" s="3">
         <v>539000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>541000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>475000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>450000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>440000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>346000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>342000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>355000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>345000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>308000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-81000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-46000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-44000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-77000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,99 +1142,106 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E21" s="3">
         <v>67000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>175000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>119000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
         <v>480000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>237000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1218,90 +1257,99 @@
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-73000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-44000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>15000</v>
       </c>
       <c r="G24" s="3">
         <v>15000</v>
       </c>
       <c r="H24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>6000</v>
       </c>
       <c r="K24" s="3">
         <v>6000</v>
       </c>
       <c r="L24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-79000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-60000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-53000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-79000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-60000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-53000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-79000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-60000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-53000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-79000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-60000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-53000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1161000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1024000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>871000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>774000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1831,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,26 +1958,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E43" s="3">
         <v>239000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>269000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1123000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1115000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1907,26 +1999,29 @@
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E44" s="3">
         <v>173000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>113000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>105000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>98000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1945,26 +2040,29 @@
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E45" s="3">
         <v>82000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>110000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>63000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>56000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1983,26 +2081,29 @@
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1717000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1655000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1516000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2162000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2043000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2021,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,26 +2163,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E48" s="3">
         <v>401000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>384000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>354000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>338000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2097,26 +2204,29 @@
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13171000</v>
+      </c>
+      <c r="E49" s="3">
         <v>13289000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13422000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13553000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13684000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2135,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,26 +2327,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E52" s="3">
         <v>117000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>119000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>95000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>97000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2249,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15430000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15462000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15441000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16164000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16162000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2325,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2486,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,17 +2496,17 @@
         <v>208000</v>
       </c>
       <c r="E57" s="3">
+        <v>208000</v>
+      </c>
+      <c r="F57" s="3">
         <v>189000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>160000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>138000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2395,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,26 +2566,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E59" s="3">
         <v>210000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>195000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4620000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4592000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2471,26 +2607,29 @@
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E60" s="3">
         <v>418000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>384000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4780000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4730000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2509,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,26 +2689,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E62" s="3">
         <v>257000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>263000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>224000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>233000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2585,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E66" s="3">
         <v>675000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>647000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5004000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4963000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2737,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,26 +3075,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>57000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11178000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11223000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2943,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14800000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14787000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14794000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11160000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11199000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3095,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-79000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-60000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-53000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,32 +3427,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E83" s="3">
         <v>140000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>137000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>138000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3">
         <v>526000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3268,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,32 +3671,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E89" s="3">
         <v>171000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>151000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>162000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3">
         <v>599000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3496,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,34 +3731,35 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-53000</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
@@ -3550,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,32 +3852,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>868000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3">
         <v>-157000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3664,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,32 +4074,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-866000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-36000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3">
         <v>91000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
@@ -3870,32 +4115,35 @@
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
@@ -3908,32 +4156,35 @@
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E102" s="3">
         <v>138000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>153000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>98000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3">
         <v>532000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
@@ -3944,6 +4195,9 @@
         <v>16</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MBLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MBLY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E8" s="3">
         <v>454000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>458000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>565000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>450000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>460000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>394000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>356000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>326000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>327000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>377000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>334000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>231000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E9" s="3">
         <v>230000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>251000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>265000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>233000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>231000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>218000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>202000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>173000</v>
       </c>
       <c r="L9" s="3">
         <v>173000</v>
       </c>
       <c r="M9" s="3">
+        <v>173000</v>
+      </c>
+      <c r="N9" s="3">
         <v>183000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>176000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E10" s="3">
         <v>224000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>207000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>217000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>229000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>176000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>154000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>153000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>154000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>194000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>158000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E12" s="3">
         <v>211000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>235000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>224000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>206000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>179000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>180000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>154000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>132000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>128000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>130000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>128000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,11 +1027,11 @@
         <v>17000</v>
       </c>
       <c r="G15" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H15" s="3">
         <v>16000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1018,8 +1041,8 @@
       <c r="K15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>522000</v>
+      </c>
+      <c r="E17" s="3">
         <v>487000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>539000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>541000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>475000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>450000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>440000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>346000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>342000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>355000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>345000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>308000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-33000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-81000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-46000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-44000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-77000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1152,99 +1186,105 @@
         <v>15000</v>
       </c>
       <c r="E20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E21" s="3">
         <v>108000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>67000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>175000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>119000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>480000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>237000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1260,96 +1300,105 @@
       <c r="M22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-73000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>34000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-44000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-46000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-16000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>15000</v>
       </c>
       <c r="H24" s="3">
         <v>15000</v>
       </c>
       <c r="I24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>6000</v>
       </c>
       <c r="L24" s="3">
         <v>6000</v>
       </c>
       <c r="M24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-79000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-60000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-53000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-79000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-60000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-53000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,81 +1714,87 @@
         <v>-15000</v>
       </c>
       <c r="E32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-79000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-60000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-53000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-79000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-60000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-53000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1965,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1193000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1142000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1161000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1024000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>871000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>774000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,29 +2051,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E43" s="3">
         <v>240000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>239000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>269000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1123000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1115000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2002,29 +2095,32 @@
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E44" s="3">
         <v>263000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>173000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>113000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>105000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>98000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2043,29 +2139,32 @@
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E45" s="3">
         <v>72000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>82000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>110000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>63000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2084,29 +2183,32 @@
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1908000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1717000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1655000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1516000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2162000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2043000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,29 +2271,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E48" s="3">
         <v>422000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>401000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>384000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>354000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>338000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2207,29 +2315,32 @@
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13060000</v>
+      </c>
+      <c r="E49" s="3">
         <v>13171000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13289000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13422000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13553000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13684000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,29 +2447,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E52" s="3">
         <v>120000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>117000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>119000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>95000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>97000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2535,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15505000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15430000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15462000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15441000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16164000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16162000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2617,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>208000</v>
+        <v>221000</v>
       </c>
       <c r="E57" s="3">
         <v>208000</v>
       </c>
       <c r="F57" s="3">
+        <v>208000</v>
+      </c>
+      <c r="G57" s="3">
         <v>189000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>160000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>138000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,29 +2703,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E59" s="3">
         <v>173000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>210000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>195000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4620000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4592000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2610,29 +2747,32 @@
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E60" s="3">
         <v>381000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>418000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>384000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4780000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4730000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,29 +2835,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E62" s="3">
         <v>249000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>257000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>263000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>224000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>233000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3011,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>632000</v>
+      </c>
+      <c r="E66" s="3">
         <v>630000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>675000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>647000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5004000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4963000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3249,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>57000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11178000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11223000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14873000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14800000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14787000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14794000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11160000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11199000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-79000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-60000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-53000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,35 +3626,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E83" s="3">
         <v>126000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>140000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>137000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>138000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3">
         <v>526000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,35 +3888,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E89" s="3">
         <v>26000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>171000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>151000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>162000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="3">
         <v>599000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,37 +3952,38 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-53000</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,35 +4082,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>868000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="3">
         <v>-157000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,35 +4320,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-866000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-36000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="3">
         <v>91000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4118,35 +4364,38 @@
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
@@ -4159,35 +4408,38 @@
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>138000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>153000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>98000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="3">
         <v>532000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>16</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
     </row>
